--- a/task 2/Полинов Михаил/task2.xlsx
+++ b/task 2/Полинов Михаил/task2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\СППУ_ИМРМП_2021\course_sppu_2021.git\task 2\Полинов Михаил\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13089BDE-F8D6-4924-A6C0-A8344756523A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2531819-9E40-44EE-9AF7-4B7353C71A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{563C02CE-92F1-4769-8828-DAA62C0BF90A}"/>
   </bookViews>
@@ -2357,8 +2357,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="79" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3047,8 +3047,8 @@
         <v>35.363636363636367</v>
       </c>
       <c r="E54" cm="1">
-        <f t="array" ref="E54:M81">[1]!MF_p_pipeline_atma(B9,B10,B13,B14,B15,B11,B12,G3,B23,10,1,0,,,1,25)</f>
-        <v>136.71930967494094</v>
+        <f t="array" ref="E54:M81">[1]!MF_p_pipeline_atma(B9,B10,B13,B14,B15,B11,B12,0,B23,10,1,0,,,1,25)</f>
+        <v>225.56686571487694</v>
       </c>
       <c r="F54">
         <v>110</v>
@@ -3060,7 +3060,7 @@
         <v>20</v>
       </c>
       <c r="I54">
-        <v>136.71930967494094</v>
+        <v>225.56686571487694</v>
       </c>
       <c r="J54">
         <v>110</v>
@@ -3072,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="M54">
-        <v>39787.372841599994</v>
+        <v>19964.372841599998</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
@@ -3189,7 +3189,7 @@
         <v>20</v>
       </c>
       <c r="J57">
-        <v>0.22053364070775194</v>
+        <v>0.31296423060858214</v>
       </c>
       <c r="K57">
         <v>103</v>
@@ -3229,13 +3229,13 @@
         <v>166.25</v>
       </c>
       <c r="H58">
-        <v>32.679223806690608</v>
+        <v>34.138708113344819</v>
       </c>
       <c r="I58">
         <v>23.75</v>
       </c>
       <c r="J58">
-        <v>0.22898886657326462</v>
+        <v>0.33498947117549388</v>
       </c>
       <c r="K58">
         <v>103</v>
@@ -3269,13 +3269,13 @@
         <v>332.5</v>
       </c>
       <c r="H59">
-        <v>35.487319681500807</v>
+        <v>38.616259901924536</v>
       </c>
       <c r="I59">
         <v>27.5</v>
       </c>
       <c r="J59">
-        <v>0.23763722257956574</v>
+        <v>0.35763817390069169</v>
       </c>
       <c r="K59">
         <v>103</v>
@@ -3309,13 +3309,13 @@
         <v>498.75</v>
       </c>
       <c r="H60">
-        <v>38.428385677288112</v>
+        <v>43.439471203778112</v>
       </c>
       <c r="I60">
         <v>31.25</v>
       </c>
       <c r="J60">
-        <v>0.24647238670263028</v>
+        <v>0.38076679894649107</v>
       </c>
       <c r="K60">
         <v>103</v>
@@ -3349,13 +3349,13 @@
         <v>665</v>
       </c>
       <c r="H61">
-        <v>41.521931213015399</v>
+        <v>48.765685919306158</v>
       </c>
       <c r="I61">
         <v>35</v>
       </c>
       <c r="J61">
-        <v>0.25550304240006261</v>
+        <v>0.44593543492986837</v>
       </c>
       <c r="K61">
         <v>103</v>
@@ -3389,13 +3389,13 @@
         <v>831.25</v>
       </c>
       <c r="H62">
-        <v>44.754149887688719</v>
+        <v>55.091415998959945</v>
       </c>
       <c r="I62">
         <v>38.75</v>
       </c>
       <c r="J62">
-        <v>0.26469278632910831</v>
+        <v>0.49409950051025292</v>
       </c>
       <c r="K62">
         <v>103</v>
@@ -3429,13 +3429,13 @@
         <v>997.5</v>
       </c>
       <c r="H63">
-        <v>48.128359927811616</v>
+        <v>61.923239251033671</v>
       </c>
       <c r="I63">
         <v>42.5</v>
       </c>
       <c r="J63">
-        <v>0.27402742908830818</v>
+        <v>0.51986201610818039</v>
       </c>
       <c r="K63">
         <v>103</v>
@@ -3469,13 +3469,13 @@
         <v>1163.75</v>
       </c>
       <c r="H64">
-        <v>51.661766278167811</v>
+        <v>69.159647272071282</v>
       </c>
       <c r="I64">
         <v>46.25</v>
       </c>
       <c r="J64">
-        <v>0.28349949723668438</v>
+        <v>0.54467821094707281</v>
       </c>
       <c r="K64">
         <v>103</v>
@@ -3509,13 +3509,13 @@
         <v>1330</v>
       </c>
       <c r="H65">
-        <v>55.338685111068287</v>
+        <v>76.733154295477505</v>
       </c>
       <c r="I65">
         <v>50</v>
       </c>
       <c r="J65">
-        <v>0.29307184203986003</v>
+        <v>0.5684436786661623</v>
       </c>
       <c r="K65">
         <v>103</v>
@@ -3549,13 +3549,13 @@
         <v>1496.25</v>
       </c>
       <c r="H66">
-        <v>59.161632190278965</v>
+        <v>84.624504418132503</v>
       </c>
       <c r="I66">
         <v>53.75</v>
       </c>
       <c r="J66">
-        <v>0.3027241059134943</v>
+        <v>0.59100628411053402</v>
       </c>
       <c r="K66">
         <v>103</v>
@@ -3589,13 +3589,13 @@
         <v>1662.5</v>
       </c>
       <c r="H67">
-        <v>63.144841204684454</v>
+        <v>92.832996462447923</v>
       </c>
       <c r="I67">
         <v>57.5</v>
       </c>
       <c r="J67">
-        <v>0.31243496052591957</v>
+        <v>0.61213528118937321</v>
       </c>
       <c r="K67">
         <v>103</v>
@@ -3629,13 +3629,13 @@
         <v>1828.75</v>
       </c>
       <c r="H68">
-        <v>67.271397719550009</v>
+        <v>101.29827345723537</v>
       </c>
       <c r="I68">
         <v>61.25</v>
       </c>
       <c r="J68">
-        <v>0.32217193611306405</v>
+        <v>0.63193100302363558</v>
       </c>
       <c r="K68">
         <v>103</v>
@@ -3669,13 +3669,13 @@
         <v>1995</v>
       </c>
       <c r="H69">
-        <v>71.542964473045245</v>
+        <v>110.00026947256886</v>
       </c>
       <c r="I69">
         <v>65</v>
       </c>
       <c r="J69">
-        <v>0.33191120281128283</v>
+        <v>0.65036707034141261</v>
       </c>
       <c r="K69">
         <v>103</v>
@@ -3709,13 +3709,13 @@
         <v>2161.25</v>
       </c>
       <c r="H70">
-        <v>75.970403186523541</v>
+        <v>118.93006935382996</v>
       </c>
       <c r="I70">
         <v>68.75</v>
       </c>
       <c r="J70">
-        <v>0.34162273918016856</v>
+        <v>0.66736302339617581</v>
       </c>
       <c r="K70">
         <v>103</v>
@@ -3749,13 +3749,13 @@
         <v>2327.5</v>
       </c>
       <c r="H71">
-        <v>80.536284909126977</v>
+        <v>128.04107356049755</v>
       </c>
       <c r="I71">
         <v>72.499999999999986</v>
       </c>
       <c r="J71">
-        <v>0.3512834693566676</v>
+        <v>0.68312146154642672</v>
       </c>
       <c r="K71">
         <v>103</v>
@@ -3789,13 +3789,13 @@
         <v>2493.75</v>
       </c>
       <c r="H72">
-        <v>85.241467999476555</v>
+        <v>137.31691894367577</v>
       </c>
       <c r="I72">
         <v>76.25</v>
       </c>
       <c r="J72">
-        <v>0.3608694582947527</v>
+        <v>0.69768507460940687</v>
       </c>
       <c r="K72">
         <v>103</v>
@@ -3829,13 +3829,13 @@
         <v>2660</v>
       </c>
       <c r="H73">
-        <v>90.093430681664742</v>
+        <v>146.74738322631407</v>
       </c>
       <c r="I73">
         <v>80</v>
       </c>
       <c r="J73">
-        <v>0.37034853070466317</v>
+        <v>0.71105904799432829</v>
       </c>
       <c r="K73">
         <v>103</v>
@@ -3869,13 +3869,13 @@
         <v>2826.25</v>
       </c>
       <c r="H74">
-        <v>95.074992777300665</v>
+        <v>156.29982275789519</v>
       </c>
       <c r="I74">
         <v>83.75</v>
       </c>
       <c r="J74">
-        <v>0.37970964790740636</v>
+        <v>0.72344456746978647</v>
       </c>
       <c r="K74">
         <v>103</v>
@@ -3909,13 +3909,13 @@
         <v>2992.5</v>
       </c>
       <c r="H75">
-        <v>100.1863759490558</v>
+        <v>165.96251083577988</v>
       </c>
       <c r="I75">
         <v>87.5</v>
       </c>
       <c r="J75">
-        <v>0.38893162074599158</v>
+        <v>0.73489590820485606</v>
       </c>
       <c r="K75">
         <v>103</v>
@@ -3949,13 +3949,13 @@
         <v>3158.75</v>
       </c>
       <c r="H76">
-        <v>105.43202195277314</v>
+        <v>175.72662607347914</v>
       </c>
       <c r="I76">
         <v>91.25</v>
       </c>
       <c r="J76">
-        <v>0.39798570231165109</v>
+        <v>0.74544395234304972</v>
       </c>
       <c r="K76">
         <v>103</v>
@@ -3989,13 +3989,13 @@
         <v>3325</v>
       </c>
       <c r="H77">
-        <v>111.11014002564099</v>
+        <v>185.57042666076273</v>
       </c>
       <c r="I77">
         <v>95</v>
       </c>
       <c r="J77">
-        <v>0.46783446843857635</v>
+        <v>0.75524697934591334</v>
       </c>
       <c r="K77">
         <v>103</v>
@@ -4029,13 +4029,13 @@
         <v>3491.25</v>
       </c>
       <c r="H78">
-        <v>117.32967323662297</v>
+        <v>195.48591419190581</v>
       </c>
       <c r="I78">
         <v>98.75</v>
       </c>
       <c r="J78">
-        <v>0.47738929626395504</v>
+        <v>0.76434741249234861</v>
       </c>
       <c r="K78">
         <v>103</v>
@@ -4069,13 +4069,13 @@
         <v>3657.5</v>
       </c>
       <c r="H79">
-        <v>123.68062036176441</v>
+        <v>205.46608785671853</v>
       </c>
       <c r="I79">
         <v>102.5</v>
       </c>
       <c r="J79">
-        <v>0.48662757300363935</v>
+        <v>0.77277622515489108</v>
       </c>
       <c r="K79">
         <v>103</v>
@@ -4109,13 +4109,13 @@
         <v>3823.75</v>
       </c>
       <c r="H80">
-        <v>130.1450715240629</v>
+        <v>215.49618098122113</v>
       </c>
       <c r="I80">
         <v>106.25</v>
       </c>
       <c r="J80">
-        <v>0.49557175718379415</v>
+        <v>0.77873379940683607</v>
       </c>
       <c r="K80">
         <v>103</v>
@@ -4149,13 +4149,13 @@
         <v>3990</v>
       </c>
       <c r="H81">
-        <v>136.71930967494094</v>
+        <v>225.56686571487694</v>
       </c>
       <c r="I81">
         <v>110</v>
       </c>
       <c r="J81">
-        <v>0.50421394648918527</v>
+        <v>0.78295381408276488</v>
       </c>
       <c r="K81">
         <v>103</v>
